--- a/public/excel/shinsei_template.xlsx
+++ b/public/excel/shinsei_template.xlsx
@@ -1,82 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonemura\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\businessTripSystem\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0537275-4161-497B-A323-F8A1077D3334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A732D72-78B5-43D5-A012-F9124C97A8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="印刷" sheetId="2" r:id="rId1"/>
+    <sheet name="印刷" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+  <si>
+    <t>出張申請書</t>
+  </si>
+  <si>
+    <t>部署名</t>
+  </si>
+  <si>
+    <t>システム開発部</t>
+  </si>
   <si>
     <t>氏名</t>
   </si>
   <si>
+    <t>米村 郁也</t>
+  </si>
+  <si>
+    <t>印</t>
+  </si>
+  <si>
+    <t>出張について、下記の通り申請いたします。</t>
+  </si>
+  <si>
     <t>行先</t>
   </si>
   <si>
+    <t>東京都</t>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>2020/08/01</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>2020/08/02</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>精算予定日</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>交通費</t>
+  </si>
+  <si>
+    <t>交通機関</t>
+  </si>
+  <si>
+    <t>区　間</t>
+  </si>
+  <si>
+    <t>金　額</t>
+  </si>
+  <si>
+    <t>地下鉄</t>
+  </si>
+  <si>
+    <t>三宮</t>
+  </si>
+  <si>
+    <t>⇔</t>
+  </si>
+  <si>
+    <t>新神戸</t>
+  </si>
+  <si>
+    <t>新幹線</t>
+  </si>
+  <si>
+    <t>東京</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>日当</t>
+  </si>
+  <si>
     <t>宿泊費</t>
-  </si>
-  <si>
-    <t>日当</t>
-  </si>
-  <si>
-    <t>目的</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>出張申請書</t>
-  </si>
-  <si>
-    <t>部署名</t>
-  </si>
-  <si>
-    <t>印</t>
-  </si>
-  <si>
-    <t>出張について、下記の通り申請いたします。</t>
-  </si>
-  <si>
-    <t>期間</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>精算予定日</t>
-  </si>
-  <si>
-    <t>交通費</t>
-  </si>
-  <si>
-    <t>交通機関</t>
-  </si>
-  <si>
-    <t>区　間</t>
-  </si>
-  <si>
-    <t>金　額</t>
-  </si>
-  <si>
-    <t>⇔</t>
-  </si>
-  <si>
-    <t>→</t>
   </si>
   <si>
     <t>仮払い金額</t>
@@ -93,25 +126,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="179" formatCode="[$¥-411]#,##0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="[$¥-411]#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="18"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -225,8 +256,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -234,12 +269,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -251,97 +282,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -364,44 +395,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -429,31 +460,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -481,23 +495,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,172 +506,196 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="5.140625" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -765,9 +786,11 @@
     </row>
     <row r="6" spans="1:26" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -823,11 +846,13 @@
     </row>
     <row r="8" spans="1:26" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -911,7 +936,7 @@
     </row>
     <row r="11" spans="1:26" ht="28.5" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -941,9 +966,11 @@
     </row>
     <row r="12" spans="1:26" ht="28.5" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -971,13 +998,17 @@
     </row>
     <row r="13" spans="1:26" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="9"/>
@@ -1003,9 +1034,11 @@
     </row>
     <row r="14" spans="1:26" ht="28.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1033,9 +1066,11 @@
     </row>
     <row r="15" spans="1:26" ht="28.5" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1063,9 +1098,11 @@
     </row>
     <row r="16" spans="1:26" ht="48.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1092,21 +1129,21 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>13</v>
+      <c r="A17" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="15"/>
       <c r="H17" s="18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="2"/>
@@ -1128,16 +1165,24 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="14">
+        <v>200</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1158,16 +1203,24 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14"/>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="14">
+        <v>14000</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1188,12 +1241,12 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="18"/>
       <c r="C20" s="15"/>
       <c r="D20" s="11"/>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="12"/>
@@ -1218,12 +1271,12 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="18"/>
       <c r="C21" s="15"/>
       <c r="D21" s="11"/>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="12"/>
@@ -1248,12 +1301,12 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A22" s="24"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="18"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11"/>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="12"/>
@@ -1278,12 +1331,12 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A23" s="24"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="18"/>
       <c r="C23" s="15"/>
       <c r="D23" s="11"/>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="12"/>
@@ -1308,12 +1361,12 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="18"/>
       <c r="C24" s="15"/>
       <c r="D24" s="11"/>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="12"/>
@@ -1339,16 +1392,20 @@
     </row>
     <row r="25" spans="1:26" ht="28.5" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1500</v>
+      </c>
       <c r="C25" s="17"/>
       <c r="D25" s="15"/>
       <c r="E25" s="18" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14">
+        <v>15000</v>
+      </c>
       <c r="H25" s="17"/>
       <c r="I25" s="15"/>
       <c r="J25" s="2"/>
@@ -1371,18 +1428,20 @@
     </row>
     <row r="26" spans="1:26" ht="33.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B26" s="19">
+        <v>20000</v>
+      </c>
       <c r="C26" s="17"/>
       <c r="D26" s="15"/>
       <c r="E26" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
       <c r="H26" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="2"/>
@@ -1404,19 +1463,20 @@
       <c r="Z26" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
@@ -1425,29 +1485,29 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel/shinsei_template.xlsx
+++ b/public/excel/shinsei_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\businessTripSystem\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A732D72-78B5-43D5-A012-F9124C97A8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C6B0CC-15A9-4746-BE52-72F995D683E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49170" yWindow="-5130" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="印刷" sheetId="1" r:id="rId1"/>
@@ -139,11 +139,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -676,18 +678,17 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="5" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.140625" customWidth="1"/>
